--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_8_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_8_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20805.18399612785</v>
+        <v>4140231.615229439</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20805.18399612785</v>
+        <v>4140231.615229439</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42384.70396649594</v>
+        <v>2969048.275509785</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42384.70396649594</v>
+        <v>2969048.275509785</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495160986.894992</v>
+        <v>58741951.95465628</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12818.55733839071</v>
+        <v>1329199.32351404</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25025.61979036588</v>
+        <v>2557091.937838319</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37232.68224234102</v>
+        <v>3784984.5521626</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>51216.26552509268</v>
+        <v>4953160.892672739</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>65129.20961592431</v>
+        <v>6107280.033990995</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>79042.15370675511</v>
+        <v>7261399.175309285</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>93559.92608041417</v>
+        <v>8436005.266122522</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>107976.260424734</v>
+        <v>9590175.604318723</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>122483.4713611384</v>
+        <v>10680418.05115929</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>136601.5394370508</v>
+        <v>11833456.02557683</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>150705.9695884869</v>
+        <v>12987575.16689514</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>164074.6491415004</v>
+        <v>14141341.49669746</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>177513.9678864286</v>
+        <v>15309165.02569204</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>191441.0963726403</v>
+        <v>16431671.1323997</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>205892.4451153837</v>
+        <v>17349096.70630211</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>184</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>223</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>325</v>
